--- a/data/orders.xlsx
+++ b/data/orders.xlsx
@@ -397,13 +397,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>customer</v>
+      </c>
+      <c r="D1" t="str">
+        <v>company</v>
+      </c>
+      <c r="E1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="F1" t="str">
+        <v>email</v>
+      </c>
+      <c r="G1" t="str">
+        <v>address</v>
+      </c>
+      <c r="H1" t="str">
+        <v>items</v>
+      </c>
+      <c r="I1" t="str">
+        <v>total</v>
+      </c>
+      <c r="J1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ORD-1756162158288</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8/26/2025</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Yahia Walid Ghazi Mohamed Breem</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>01055990850</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>61 Semouha Alexandria</v>
+      </c>
+      <c r="H2" t="str">
+        <v>1 KG Minced Beef</v>
+      </c>
+      <c r="I2" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J2" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>